--- a/hyl定投/定投记录表.xlsx
+++ b/hyl定投/定投记录表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hyl\hylnotes\hyl定投\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>买入或卖出时的估值（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>007028 中证500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>519671 沪深300价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,16 +313,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="日期" dataDxfId="8"/>
-    <tableColumn id="2" name="操作（买/卖）" dataDxfId="7"/>
-    <tableColumn id="3" name="交易品代码" dataDxfId="6"/>
-    <tableColumn id="4" name="买入或卖出金额（元" dataDxfId="5"/>
-    <tableColumn id="5" name="成交单价（元）" dataDxfId="4"/>
-    <tableColumn id="6" name="买入或卖出的份额" dataDxfId="3"/>
-    <tableColumn id="7" name="买入或卖出时的估值（元）" dataDxfId="2"/>
+    <tableColumn id="1" name="日期" dataDxfId="6"/>
+    <tableColumn id="2" name="操作（买/卖）" dataDxfId="5"/>
+    <tableColumn id="3" name="交易品代码" dataDxfId="4"/>
+    <tableColumn id="4" name="买入或卖出金额（元" dataDxfId="3"/>
+    <tableColumn id="5" name="成交单价（元）" dataDxfId="2"/>
+    <tableColumn id="6" name="买入或卖出的份额" dataDxfId="1"/>
+    <tableColumn id="7" name="买入或卖出时的估值（元）" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -586,15 +594,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
@@ -636,17 +644,33 @@
       <c r="D2" s="1">
         <v>500</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>523.63</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="2">
+        <v>43634</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>450</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>278.48</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
